--- a/resources/subclusters_removed_byQC_final.xlsx
+++ b/resources/subclusters_removed_byQC_final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t xml:space="preserve">ct_subcluster</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">preCG-astrocyte-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precg-astrocyte-2</t>
   </si>
   <si>
     <t xml:space="preserve">preCG-endothelia-5</t>
@@ -473,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,10 +480,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,51 +508,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF5B9BD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFE699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -630,11 +578,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
   </cols>
@@ -651,103 +599,91 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -755,139 +691,117 @@
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -895,73 +809,66 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -969,7 +876,7 @@
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -977,21 +884,20 @@
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -999,199 +905,175 @@
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="0" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="3" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>40</v>
+      <c r="B80" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="3" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="3"/>
-    </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="3" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1199,7 +1081,7 @@
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1207,184 +1089,152 @@
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="3" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="3"/>
-    </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="3"/>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/resources/subclusters_removed_byQC_final.xlsx
+++ b/resources/subclusters_removed_byQC_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LOChen/orion/nucseq_nd_dpolioud/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F7AAD-D66F-484F-880C-B8440275B258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7E310-6BAC-9F40-BBC1-C94E5A0A65A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BADcluster_finalList" sheetId="1" r:id="rId1"/>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD113"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/subclusters_removed_byQC_final.xlsx
+++ b/resources/subclusters_removed_byQC_final.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LOChen/orion/nucseq_nd_dpolioud/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7E310-6BAC-9F40-BBC1-C94E5A0A65A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A15BD-AA60-9541-9D77-AA638D5A00BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BADcluster_finalList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>ct_subcluster</t>
   </si>
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>calcarine-astrocyte-3</t>
   </si>
   <si>
     <t>calcarine-astrocyte-5</t>
@@ -435,14 +432,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,17 +846,17 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -870,7 +866,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -880,15 +876,15 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -898,121 +894,121 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1022,70 +1018,70 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,13 +1100,16 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1117,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,20 +1125,20 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,33 +1146,30 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1183,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1222,7 +1218,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1232,7 +1228,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1242,12 +1238,12 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1262,52 +1258,55 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1314,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1322,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,36 +1330,33 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1369,27 +1365,27 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1404,7 +1400,7 @@
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1414,7 +1410,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1434,12 +1430,12 @@
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1465,17 +1461,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
